--- a/regionseng/10/business sector/by size.xlsx
+++ b/regionseng/10/business sector/by size.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEF315E-7996-4275-B19B-67995CD0B7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -248,6 +249,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -283,6 +301,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -472,7 +507,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +516,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -490,14 +525,14 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -544,8 +579,14 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
@@ -594,8 +635,14 @@
       <c r="P6" s="8">
         <v>88036.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="8">
+        <v>116964.1</v>
+      </c>
+      <c r="R6" s="8">
+        <v>139327.79999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -644,8 +691,14 @@
       <c r="P7" s="9">
         <v>59095.199999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="9">
+        <v>84785.7</v>
+      </c>
+      <c r="R7" s="9">
+        <v>101424.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -694,8 +747,14 @@
       <c r="P8" s="9">
         <v>13706.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="9">
+        <v>16656.8</v>
+      </c>
+      <c r="R8" s="9">
+        <v>20299.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -744,14 +803,20 @@
       <c r="P9" s="9">
         <v>15235.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="9">
+        <v>15521.6</v>
+      </c>
+      <c r="R9" s="9">
+        <v>17603.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -760,7 +825,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -807,8 +872,14 @@
       <c r="P13" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>1</v>
       </c>
@@ -857,8 +928,14 @@
       <c r="P14" s="8">
         <v>28464.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="8">
+        <v>34882.1</v>
+      </c>
+      <c r="R14" s="8">
+        <v>44408.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -907,8 +984,14 @@
       <c r="P15" s="9">
         <v>11985.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="9">
+        <v>16987.7</v>
+      </c>
+      <c r="R15" s="9">
+        <v>22817</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -957,8 +1040,14 @@
       <c r="P16" s="9">
         <v>7751.1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="9">
+        <v>8692.1</v>
+      </c>
+      <c r="R16" s="9">
+        <v>10988.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1007,14 +1096,20 @@
       <c r="P17" s="9">
         <v>8727.7999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="9">
+        <v>9202.2999999999993</v>
+      </c>
+      <c r="R17" s="9">
+        <v>10603.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1118,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1070,8 +1165,14 @@
       <c r="P21" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>1</v>
       </c>
@@ -1120,8 +1221,14 @@
       <c r="P22" s="10">
         <v>443272.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="10">
+        <v>460576</v>
+      </c>
+      <c r="R22" s="10">
+        <v>484705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1170,8 +1277,14 @@
       <c r="P23" s="11">
         <v>209529</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="11">
+        <v>224137</v>
+      </c>
+      <c r="R23" s="11">
+        <v>246968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,8 +1333,14 @@
       <c r="P24" s="11">
         <v>97058.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="11">
+        <v>93940</v>
+      </c>
+      <c r="R24" s="11">
+        <v>101570</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1270,15 +1389,21 @@
       <c r="P25" s="11">
         <v>136684.20000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="11">
+        <v>142499</v>
+      </c>
+      <c r="R25" s="11">
+        <v>136167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +1414,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1336,8 +1461,14 @@
       <c r="P29" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>1</v>
       </c>
@@ -1386,8 +1517,14 @@
       <c r="P30" s="8">
         <v>1348.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="8">
+        <v>1505.8</v>
+      </c>
+      <c r="R30" s="8">
+        <v>1791.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -1436,8 +1573,14 @@
       <c r="P31" s="9">
         <v>1298.4000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="9">
+        <v>1494.5</v>
+      </c>
+      <c r="R31" s="9">
+        <v>1796.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1486,8 +1629,14 @@
       <c r="P32" s="9">
         <v>1560.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="9">
+        <v>1796.5</v>
+      </c>
+      <c r="R32" s="9">
+        <v>2099.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1536,13 +1685,19 @@
       <c r="P33" s="9">
         <v>1269</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="9">
+        <v>1318.6</v>
+      </c>
+      <c r="R33" s="9">
+        <v>1536.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1550,7 +1705,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
